--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mfng-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mfng-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.982688</v>
+        <v>16.53002533333333</v>
       </c>
       <c r="H2">
-        <v>44.948064</v>
+        <v>49.590076</v>
       </c>
       <c r="I2">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465919</v>
       </c>
       <c r="J2">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465918</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N2">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O2">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P2">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q2">
-        <v>18.238605894656</v>
+        <v>49.75632948479421</v>
       </c>
       <c r="R2">
-        <v>164.147453051904</v>
+        <v>447.8069653631479</v>
       </c>
       <c r="S2">
-        <v>0.00304390033967286</v>
+        <v>0.009469879130612291</v>
       </c>
       <c r="T2">
-        <v>0.003043900339672859</v>
+        <v>0.009469879130612289</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.982688</v>
+        <v>16.53002533333333</v>
       </c>
       <c r="H3">
-        <v>44.948064</v>
+        <v>49.590076</v>
       </c>
       <c r="I3">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465919</v>
       </c>
       <c r="J3">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465918</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>55.904827</v>
       </c>
       <c r="O3">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P3">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q3">
-        <v>279.2015268783252</v>
+        <v>308.0360688552057</v>
       </c>
       <c r="R3">
-        <v>2512.813741904928</v>
+        <v>2772.324619696852</v>
       </c>
       <c r="S3">
-        <v>0.04659685216133371</v>
+        <v>0.05862700022555387</v>
       </c>
       <c r="T3">
-        <v>0.04659685216133371</v>
+        <v>0.05862700022555387</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.982688</v>
+        <v>16.53002533333333</v>
       </c>
       <c r="H4">
-        <v>44.948064</v>
+        <v>49.590076</v>
       </c>
       <c r="I4">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465919</v>
       </c>
       <c r="J4">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465918</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N4">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O4">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P4">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q4">
-        <v>796.0833670227945</v>
+        <v>1139.251274476289</v>
       </c>
       <c r="R4">
-        <v>7164.750303205151</v>
+        <v>10253.2614702866</v>
       </c>
       <c r="S4">
-        <v>0.1328609459124618</v>
+        <v>0.2168281298157957</v>
       </c>
       <c r="T4">
-        <v>0.1328609459124618</v>
+        <v>0.2168281298157957</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.982688</v>
+        <v>16.53002533333333</v>
       </c>
       <c r="H5">
-        <v>44.948064</v>
+        <v>49.590076</v>
       </c>
       <c r="I5">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465919</v>
       </c>
       <c r="J5">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465918</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N5">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O5">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P5">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q5">
-        <v>416.7426376779306</v>
+        <v>145.3554443466231</v>
       </c>
       <c r="R5">
-        <v>3750.683739101376</v>
+        <v>1308.198999119608</v>
       </c>
       <c r="S5">
-        <v>0.06955153610483462</v>
+        <v>0.02766479165951394</v>
       </c>
       <c r="T5">
-        <v>0.06955153610483462</v>
+        <v>0.02766479165951393</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.982688</v>
+        <v>16.53002533333333</v>
       </c>
       <c r="H6">
-        <v>44.948064</v>
+        <v>49.590076</v>
       </c>
       <c r="I6">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465919</v>
       </c>
       <c r="J6">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465918</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N6">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O6">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P6">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q6">
-        <v>1270.963868323893</v>
+        <v>1596.611002089663</v>
       </c>
       <c r="R6">
-        <v>11438.67481491504</v>
+        <v>14369.49901880697</v>
       </c>
       <c r="S6">
-        <v>0.2121152994284817</v>
+        <v>0.3038751725650409</v>
       </c>
       <c r="T6">
-        <v>0.2121152994284817</v>
+        <v>0.3038751725650409</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.982688</v>
+        <v>16.53002533333333</v>
       </c>
       <c r="H7">
-        <v>44.948064</v>
+        <v>49.590076</v>
       </c>
       <c r="I7">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465919</v>
       </c>
       <c r="J7">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465918</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N7">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O7">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P7">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q7">
-        <v>786.2209327391253</v>
+        <v>522.802522178691</v>
       </c>
       <c r="R7">
-        <v>7075.988394652128</v>
+        <v>4705.22269960822</v>
       </c>
       <c r="S7">
-        <v>0.1312149721335746</v>
+        <v>0.09950245015007524</v>
       </c>
       <c r="T7">
-        <v>0.1312149721335746</v>
+        <v>0.09950245015007522</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.692289</v>
+        <v>1.716709333333333</v>
       </c>
       <c r="H8">
-        <v>8.076867</v>
+        <v>5.150128</v>
       </c>
       <c r="I8">
-        <v>0.1069864408977605</v>
+        <v>0.0743560843725096</v>
       </c>
       <c r="J8">
-        <v>0.1069864408977604</v>
+        <v>0.07435608437250958</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N8">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O8">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P8">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q8">
-        <v>3.277355707168001</v>
+        <v>5.167394090238222</v>
       </c>
       <c r="R8">
-        <v>29.496201364512</v>
+        <v>46.506546812144</v>
       </c>
       <c r="S8">
-        <v>0.0005469685680965595</v>
+        <v>0.0009834848744168497</v>
       </c>
       <c r="T8">
-        <v>0.0005469685680965594</v>
+        <v>0.0009834848744168494</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.692289</v>
+        <v>1.716709333333333</v>
       </c>
       <c r="H9">
-        <v>8.076867</v>
+        <v>5.150128</v>
       </c>
       <c r="I9">
-        <v>0.1069864408977605</v>
+        <v>0.0743560843725096</v>
       </c>
       <c r="J9">
-        <v>0.1069864408977604</v>
+        <v>0.07435608437250958</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>55.904827</v>
       </c>
       <c r="O9">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P9">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q9">
-        <v>50.17065025966767</v>
+        <v>31.99077942976178</v>
       </c>
       <c r="R9">
-        <v>451.535852337009</v>
+        <v>287.917014867856</v>
       </c>
       <c r="S9">
-        <v>0.008373143224272241</v>
+        <v>0.006088648773549599</v>
       </c>
       <c r="T9">
-        <v>0.008373143224272239</v>
+        <v>0.006088648773549597</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.692289</v>
+        <v>1.716709333333333</v>
       </c>
       <c r="H10">
-        <v>8.076867</v>
+        <v>5.150128</v>
       </c>
       <c r="I10">
-        <v>0.1069864408977605</v>
+        <v>0.0743560843725096</v>
       </c>
       <c r="J10">
-        <v>0.1069864408977604</v>
+        <v>0.07435608437250958</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N10">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O10">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P10">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q10">
-        <v>143.0508659139423</v>
+        <v>118.3158075360889</v>
       </c>
       <c r="R10">
-        <v>1287.457793225481</v>
+        <v>1064.8422678248</v>
       </c>
       <c r="S10">
-        <v>0.02387422491943475</v>
+        <v>0.0225184696742946</v>
       </c>
       <c r="T10">
-        <v>0.02387422491943474</v>
+        <v>0.0225184696742946</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.692289</v>
+        <v>1.716709333333333</v>
       </c>
       <c r="H11">
-        <v>8.076867</v>
+        <v>5.150128</v>
       </c>
       <c r="I11">
-        <v>0.1069864408977605</v>
+        <v>0.0743560843725096</v>
       </c>
       <c r="J11">
-        <v>0.1069864408977604</v>
+        <v>0.07435608437250958</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N11">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O11">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P11">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q11">
-        <v>74.88586956167534</v>
+        <v>15.09574504144711</v>
       </c>
       <c r="R11">
-        <v>673.972826055078</v>
+        <v>135.861705373024</v>
       </c>
       <c r="S11">
-        <v>0.01249794666939264</v>
+        <v>0.002873099410854487</v>
       </c>
       <c r="T11">
-        <v>0.01249794666939264</v>
+        <v>0.002873099410854486</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.692289</v>
+        <v>1.716709333333333</v>
       </c>
       <c r="H12">
-        <v>8.076867</v>
+        <v>5.150128</v>
       </c>
       <c r="I12">
-        <v>0.1069864408977605</v>
+        <v>0.0743560843725096</v>
       </c>
       <c r="J12">
-        <v>0.1069864408977604</v>
+        <v>0.07435608437250958</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N12">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O12">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P12">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q12">
-        <v>228.3837214047217</v>
+        <v>165.8144469665671</v>
       </c>
       <c r="R12">
-        <v>2055.453492642495</v>
+        <v>1492.330022699104</v>
       </c>
       <c r="S12">
-        <v>0.03811570309566666</v>
+        <v>0.03155865368571021</v>
       </c>
       <c r="T12">
-        <v>0.03811570309566666</v>
+        <v>0.03155865368571021</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.692289</v>
+        <v>1.716709333333333</v>
       </c>
       <c r="H13">
-        <v>8.076867</v>
+        <v>5.150128</v>
       </c>
       <c r="I13">
-        <v>0.1069864408977605</v>
+        <v>0.0743560843725096</v>
       </c>
       <c r="J13">
-        <v>0.1069864408977604</v>
+        <v>0.07435608437250958</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N13">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O13">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P13">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q13">
-        <v>141.2786523208177</v>
+        <v>54.29513574335112</v>
       </c>
       <c r="R13">
-        <v>1271.507870887359</v>
+        <v>488.6562216901601</v>
       </c>
       <c r="S13">
-        <v>0.0235784544208976</v>
+        <v>0.01033372795368385</v>
       </c>
       <c r="T13">
-        <v>0.02357845442089759</v>
+        <v>0.01033372795368385</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.877244666666666</v>
+        <v>0.005337333333333333</v>
       </c>
       <c r="H14">
-        <v>8.631734</v>
+        <v>0.016012</v>
       </c>
       <c r="I14">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="J14">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N14">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O14">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P14">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q14">
-        <v>3.502504459669334</v>
+        <v>0.01606568111955555</v>
       </c>
       <c r="R14">
-        <v>31.522540137024</v>
+        <v>0.144591130076</v>
       </c>
       <c r="S14">
-        <v>0.0005845443766958633</v>
+        <v>3.057702606452227E-06</v>
       </c>
       <c r="T14">
-        <v>0.0005845443766958632</v>
+        <v>3.057702606452226E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.877244666666666</v>
+        <v>0.005337333333333333</v>
       </c>
       <c r="H15">
-        <v>8.631734</v>
+        <v>0.016012</v>
       </c>
       <c r="I15">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="J15">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>55.904827</v>
       </c>
       <c r="O15">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P15">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q15">
-        <v>53.61728844222421</v>
+        <v>0.09946089888044442</v>
       </c>
       <c r="R15">
-        <v>482.555595980018</v>
+        <v>0.8951480899239999</v>
       </c>
       <c r="S15">
-        <v>0.008948363896028041</v>
+        <v>1.892990701630642E-05</v>
       </c>
       <c r="T15">
-        <v>0.008948363896028041</v>
+        <v>1.892990701630642E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>2.877244666666666</v>
+        <v>0.005337333333333333</v>
       </c>
       <c r="H16">
-        <v>8.631734</v>
+        <v>0.016012</v>
       </c>
       <c r="I16">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="J16">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N16">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O16">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P16">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q16">
-        <v>152.8782166449958</v>
+        <v>0.3678496360222222</v>
       </c>
       <c r="R16">
-        <v>1375.903949804962</v>
+        <v>3.3106467242</v>
       </c>
       <c r="S16">
-        <v>0.02551434348996116</v>
+        <v>7.001102427450446E-05</v>
       </c>
       <c r="T16">
-        <v>0.02551434348996116</v>
+        <v>7.001102427450445E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>2.877244666666666</v>
+        <v>0.005337333333333333</v>
       </c>
       <c r="H17">
-        <v>8.631734</v>
+        <v>0.016012</v>
       </c>
       <c r="I17">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="J17">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N17">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O17">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P17">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q17">
-        <v>80.03040119579511</v>
+        <v>0.04693341012177778</v>
       </c>
       <c r="R17">
-        <v>720.273610762156</v>
+        <v>0.422400691096</v>
       </c>
       <c r="S17">
-        <v>0.0133565343092047</v>
+        <v>8.932606678242179E-06</v>
       </c>
       <c r="T17">
-        <v>0.0133565343092047</v>
+        <v>8.932606678242177E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>2.877244666666666</v>
+        <v>0.005337333333333333</v>
       </c>
       <c r="H18">
-        <v>8.631734</v>
+        <v>0.016012</v>
       </c>
       <c r="I18">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="J18">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N18">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O18">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P18">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q18">
-        <v>244.0732939016656</v>
+        <v>0.5155252306017778</v>
       </c>
       <c r="R18">
-        <v>2196.65964511499</v>
+        <v>4.639727075416</v>
       </c>
       <c r="S18">
-        <v>0.04073418694956487</v>
+        <v>9.811739879389248E-05</v>
       </c>
       <c r="T18">
-        <v>0.04073418694956487</v>
+        <v>9.811739879389245E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>2.877244666666666</v>
+        <v>0.005337333333333333</v>
       </c>
       <c r="H19">
-        <v>8.631734</v>
+        <v>0.016012</v>
       </c>
       <c r="I19">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="J19">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N19">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O19">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P19">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q19">
-        <v>150.9842549978576</v>
+        <v>0.1688062342377778</v>
       </c>
       <c r="R19">
-        <v>1358.858294980718</v>
+        <v>1.51925610814</v>
       </c>
       <c r="S19">
-        <v>0.02519825406216446</v>
+        <v>3.21280659421253E-05</v>
       </c>
       <c r="T19">
-        <v>0.02519825406216446</v>
+        <v>3.212806594212528E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.612546666666667</v>
+        <v>4.102108333333334</v>
       </c>
       <c r="H20">
-        <v>13.83764</v>
+        <v>12.306325</v>
       </c>
       <c r="I20">
-        <v>0.1832938259382612</v>
+        <v>0.1776752228324275</v>
       </c>
       <c r="J20">
-        <v>0.1832938259382612</v>
+        <v>0.1776752228324275</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N20">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O20">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P20">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q20">
-        <v>5.614908407893334</v>
+        <v>12.34758263824722</v>
       </c>
       <c r="R20">
-        <v>50.53417567104001</v>
+        <v>111.128243744225</v>
       </c>
       <c r="S20">
-        <v>0.0009370903515726674</v>
+        <v>0.00235005508545767</v>
       </c>
       <c r="T20">
-        <v>0.0009370903515726673</v>
+        <v>0.002350055085457669</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,13 +1706,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.612546666666667</v>
+        <v>4.102108333333334</v>
       </c>
       <c r="H21">
-        <v>13.83764</v>
+        <v>12.306325</v>
       </c>
       <c r="I21">
-        <v>0.1832938259382612</v>
+        <v>0.1776752228324275</v>
       </c>
       <c r="J21">
-        <v>0.1832938259382612</v>
+        <v>0.1776752228324275</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>55.904827</v>
       </c>
       <c r="O21">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P21">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q21">
-        <v>85.95454114314221</v>
+        <v>76.44255223675277</v>
       </c>
       <c r="R21">
-        <v>773.59087028828</v>
+        <v>687.982970130775</v>
       </c>
       <c r="S21">
-        <v>0.01434523331954315</v>
+        <v>0.01454893754449458</v>
       </c>
       <c r="T21">
-        <v>0.01434523331954315</v>
+        <v>0.01454893754449458</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.612546666666667</v>
+        <v>4.102108333333334</v>
       </c>
       <c r="H22">
-        <v>13.83764</v>
+        <v>12.306325</v>
       </c>
       <c r="I22">
-        <v>0.1832938259382612</v>
+        <v>0.1776752228324275</v>
       </c>
       <c r="J22">
-        <v>0.1832938259382612</v>
+        <v>0.1776752228324275</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N22">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O22">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P22">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q22">
-        <v>245.0809681780578</v>
+        <v>282.7177849126389</v>
       </c>
       <c r="R22">
-        <v>2205.72871360252</v>
+        <v>2544.46006421375</v>
       </c>
       <c r="S22">
-        <v>0.04090236099147937</v>
+        <v>0.05380829492286668</v>
       </c>
       <c r="T22">
-        <v>0.04090236099147937</v>
+        <v>0.05380829492286667</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.612546666666667</v>
+        <v>4.102108333333334</v>
       </c>
       <c r="H23">
-        <v>13.83764</v>
+        <v>12.306325</v>
       </c>
       <c r="I23">
-        <v>0.1832938259382612</v>
+        <v>0.1776752228324275</v>
       </c>
       <c r="J23">
-        <v>0.1832938259382612</v>
+        <v>0.1776752228324275</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N23">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O23">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P23">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q23">
-        <v>128.2977303057511</v>
+        <v>36.07155872576112</v>
       </c>
       <c r="R23">
-        <v>1154.67957275176</v>
+        <v>324.64402853185</v>
       </c>
       <c r="S23">
-        <v>0.02141202606781248</v>
+        <v>0.006865323562304441</v>
       </c>
       <c r="T23">
-        <v>0.02141202606781248</v>
+        <v>0.00686532356230444</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.612546666666667</v>
+        <v>4.102108333333334</v>
       </c>
       <c r="H24">
-        <v>13.83764</v>
+        <v>12.306325</v>
       </c>
       <c r="I24">
-        <v>0.1832938259382612</v>
+        <v>0.1776752228324275</v>
       </c>
       <c r="J24">
-        <v>0.1832938259382612</v>
+        <v>0.1776752228324275</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N24">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O24">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P24">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q24">
-        <v>391.2769293661556</v>
+        <v>396.2166521037612</v>
       </c>
       <c r="R24">
-        <v>3521.4923642954</v>
+        <v>3565.949868933851</v>
       </c>
       <c r="S24">
-        <v>0.06530148110458187</v>
+        <v>0.07540997987211148</v>
       </c>
       <c r="T24">
-        <v>0.06530148110458187</v>
+        <v>0.07540997987211147</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.102108333333334</v>
+      </c>
+      <c r="H25">
+        <v>12.306325</v>
+      </c>
+      <c r="I25">
+        <v>0.1776752228324275</v>
+      </c>
+      <c r="J25">
+        <v>0.1776752228324275</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>31.62744833333333</v>
+      </c>
+      <c r="N25">
+        <v>94.882345</v>
+      </c>
+      <c r="O25">
+        <v>0.1389762255623074</v>
+      </c>
+      <c r="P25">
+        <v>0.1389762255623074</v>
+      </c>
+      <c r="Q25">
+        <v>129.7392193702361</v>
+      </c>
+      <c r="R25">
+        <v>1167.652974332125</v>
+      </c>
+      <c r="S25">
+        <v>0.02469263184519268</v>
+      </c>
+      <c r="T25">
+        <v>0.02469263184519267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7334976666666666</v>
+      </c>
+      <c r="H26">
+        <v>2.200493</v>
+      </c>
+      <c r="I26">
+        <v>0.03177009254315946</v>
+      </c>
+      <c r="J26">
+        <v>0.03177009254315945</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.010057666666667</v>
+      </c>
+      <c r="N26">
+        <v>9.030173</v>
+      </c>
+      <c r="O26">
+        <v>0.01322668995706902</v>
+      </c>
+      <c r="P26">
+        <v>0.01322668995706902</v>
+      </c>
+      <c r="Q26">
+        <v>2.207870275032111</v>
+      </c>
+      <c r="R26">
+        <v>19.870832475289</v>
+      </c>
+      <c r="S26">
+        <v>0.0004202131639757607</v>
+      </c>
+      <c r="T26">
+        <v>0.0004202131639757606</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.7334976666666666</v>
+      </c>
+      <c r="H27">
+        <v>2.200493</v>
+      </c>
+      <c r="I27">
+        <v>0.03177009254315946</v>
+      </c>
+      <c r="J27">
+        <v>0.03177009254315945</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>18.63494233333333</v>
+      </c>
+      <c r="N27">
+        <v>55.904827</v>
+      </c>
+      <c r="O27">
+        <v>0.08188501082233764</v>
+      </c>
+      <c r="P27">
+        <v>0.08188501082233764</v>
+      </c>
+      <c r="Q27">
+        <v>13.66868671996789</v>
+      </c>
+      <c r="R27">
+        <v>123.018180479711</v>
+      </c>
+      <c r="S27">
+        <v>0.002601494371723281</v>
+      </c>
+      <c r="T27">
+        <v>0.00260149437172328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.7334976666666666</v>
+      </c>
+      <c r="H28">
+        <v>2.200493</v>
+      </c>
+      <c r="I28">
+        <v>0.03177009254315946</v>
+      </c>
+      <c r="J28">
+        <v>0.03177009254315945</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>68.92011666666667</v>
+      </c>
+      <c r="N28">
+        <v>206.76035</v>
+      </c>
+      <c r="O28">
+        <v>0.3028463623969415</v>
+      </c>
+      <c r="P28">
+        <v>0.3028463623969415</v>
+      </c>
+      <c r="Q28">
+        <v>50.55274476139444</v>
+      </c>
+      <c r="R28">
+        <v>454.97470285255</v>
+      </c>
+      <c r="S28">
+        <v>0.009621456959710039</v>
+      </c>
+      <c r="T28">
+        <v>0.009621456959710038</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.7334976666666666</v>
+      </c>
+      <c r="H29">
+        <v>2.200493</v>
+      </c>
+      <c r="I29">
+        <v>0.03177009254315946</v>
+      </c>
+      <c r="J29">
+        <v>0.03177009254315945</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>8.793419333333334</v>
+      </c>
+      <c r="N29">
+        <v>26.380258</v>
+      </c>
+      <c r="O29">
+        <v>0.03863973520258026</v>
+      </c>
+      <c r="P29">
+        <v>0.03863973520258026</v>
+      </c>
+      <c r="Q29">
+        <v>6.449952563021556</v>
+      </c>
+      <c r="R29">
+        <v>58.049573067194</v>
+      </c>
+      <c r="S29">
+        <v>0.001227587963229151</v>
+      </c>
+      <c r="T29">
+        <v>0.001227587963229151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>4.612546666666667</v>
-      </c>
-      <c r="H25">
-        <v>13.83764</v>
-      </c>
-      <c r="I25">
-        <v>0.1832938259382612</v>
-      </c>
-      <c r="J25">
-        <v>0.1832938259382612</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>52.47529233333334</v>
-      </c>
-      <c r="N25">
-        <v>157.425877</v>
-      </c>
-      <c r="O25">
-        <v>0.2203873147199083</v>
-      </c>
-      <c r="P25">
-        <v>0.2203873147199082</v>
-      </c>
-      <c r="Q25">
-        <v>242.0447347344756</v>
-      </c>
-      <c r="R25">
-        <v>2178.40261261028</v>
-      </c>
-      <c r="S25">
-        <v>0.04039563410327165</v>
-      </c>
-      <c r="T25">
-        <v>0.04039563410327165</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.7334976666666666</v>
+      </c>
+      <c r="H30">
+        <v>2.200493</v>
+      </c>
+      <c r="I30">
+        <v>0.03177009254315946</v>
+      </c>
+      <c r="J30">
+        <v>0.03177009254315945</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>96.58853933333334</v>
+      </c>
+      <c r="N30">
+        <v>289.765618</v>
+      </c>
+      <c r="O30">
+        <v>0.4244259760587643</v>
+      </c>
+      <c r="P30">
+        <v>0.4244259760587643</v>
+      </c>
+      <c r="Q30">
+        <v>70.84746822774156</v>
+      </c>
+      <c r="R30">
+        <v>637.627214049674</v>
+      </c>
+      <c r="S30">
+        <v>0.01348405253710772</v>
+      </c>
+      <c r="T30">
+        <v>0.01348405253710772</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.7334976666666666</v>
+      </c>
+      <c r="H31">
+        <v>2.200493</v>
+      </c>
+      <c r="I31">
+        <v>0.03177009254315946</v>
+      </c>
+      <c r="J31">
+        <v>0.03177009254315945</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>31.62744833333333</v>
+      </c>
+      <c r="N31">
+        <v>94.882345</v>
+      </c>
+      <c r="O31">
+        <v>0.1389762255623074</v>
+      </c>
+      <c r="P31">
+        <v>0.1389762255623074</v>
+      </c>
+      <c r="Q31">
+        <v>23.19865955512055</v>
+      </c>
+      <c r="R31">
+        <v>208.787935996085</v>
+      </c>
+      <c r="S31">
+        <v>0.00441528754741351</v>
+      </c>
+      <c r="T31">
+        <v>0.004415287547413509</v>
       </c>
     </row>
   </sheetData>
